--- a/LRN.ExcelGenerator/TemplateFiles/Production_Template.xlsx
+++ b/LRN.ExcelGenerator/TemplateFiles/Production_Template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\source\LabRevenueNavigator\LabRevenueNavigator\LRN.ExcelGenerator\TemplateFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\source\Files\TemplatePath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBB3362-5914-4736-A839-0335B0E06D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BC9714-CD1C-4A86-A924-354788AB93AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C945F410-5966-40A8-81BE-1DAFA53C1DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Production Master" sheetId="1" r:id="rId1"/>
+    <sheet name="Prod Line Level Report" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>Accession # per Dakota</t>
   </si>
@@ -44,9 +45,6 @@
     <t>AMD Visit #</t>
   </si>
   <si>
-    <t>Panel Group</t>
-  </si>
-  <si>
     <t>Carrier</t>
   </si>
   <si>
@@ -80,9 +78,6 @@
     <t>AMD DOE</t>
   </si>
   <si>
-    <t>LastBillDate</t>
-  </si>
-  <si>
     <t>Latest Post Date</t>
   </si>
   <si>
@@ -165,6 +160,117 @@
   </si>
   <si>
     <t>Claim Status</t>
+  </si>
+  <si>
+    <t>First Bill Date</t>
+  </si>
+  <si>
+    <t>AccessionNo</t>
+  </si>
+  <si>
+    <t>VisitNumber</t>
+  </si>
+  <si>
+    <t>CPTCode</t>
+  </si>
+  <si>
+    <t>PatientID</t>
+  </si>
+  <si>
+    <t>PatientDOB</t>
+  </si>
+  <si>
+    <t>PayerName</t>
+  </si>
+  <si>
+    <t>PayerType</t>
+  </si>
+  <si>
+    <t>BillingProvider</t>
+  </si>
+  <si>
+    <t>EndDOS</t>
+  </si>
+  <si>
+    <t>ChargeEntryDate</t>
+  </si>
+  <si>
+    <t>FirstBillDate</t>
+  </si>
+  <si>
+    <t>PanelName</t>
+  </si>
+  <si>
+    <t>OrderInfo</t>
+  </si>
+  <si>
+    <t>ICD10Code</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>CheckDate</t>
+  </si>
+  <si>
+    <t>PaymentPostedDate</t>
+  </si>
+  <si>
+    <t>DenialPostedDate</t>
+  </si>
+  <si>
+    <t>CheckNumber</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>DenialCode</t>
+  </si>
+  <si>
+    <t>BilledAmount</t>
+  </si>
+  <si>
+    <t>AllowedAmount</t>
+  </si>
+  <si>
+    <t>InsuranceAdjustment</t>
+  </si>
+  <si>
+    <t>PatientPaidAmount</t>
+  </si>
+  <si>
+    <t>PatientAdjustment</t>
+  </si>
+  <si>
+    <t>InsuranceBalance</t>
+  </si>
+  <si>
+    <t>FinalClaimStatus</t>
+  </si>
+  <si>
+    <t>InsurancePayment</t>
+  </si>
+  <si>
+    <t>Panel Name</t>
+  </si>
+  <si>
+    <t>PanelGroup</t>
+  </si>
+  <si>
+    <t>ClinicName</t>
+  </si>
+  <si>
+    <t>TestType</t>
+  </si>
+  <si>
+    <t>LabName</t>
+  </si>
+  <si>
+    <t>OperationsGroup</t>
+  </si>
+  <si>
+    <t>ReferringProviderName</t>
   </si>
 </sst>
 </file>
@@ -637,15 +743,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E45F67-4BB5-427E-B3B3-6FC568F33A83}">
-  <dimension ref="A1:AQ1"/>
+  <dimension ref="A1:AT1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,127 +757,270 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09AAB09-5D0C-4B07-9860-2105FBAD7D0E}">
+  <dimension ref="A1:AM1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
+      <c r="K1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>18</v>
+        <v>72</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="AM1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
